--- a/tests/Feature/config/kpi_realistic.xlsx
+++ b/tests/Feature/config/kpi_realistic.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId4"/>
-    <sheet name="Cash" sheetId="2" r:id="rId5"/>
+    <sheet name="KPI" sheetId="2" r:id="rId5"/>
     <sheet name="Statistics" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>private</t>
   </si>
@@ -106,16 +106,13 @@
     <t>Markedsverdi</t>
   </si>
   <si>
-    <t>% Økning</t>
-  </si>
-  <si>
     <t>Markedsverdi fratrukket lån</t>
   </si>
   <si>
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl renter)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -136,166 +133,127 @@
     <t>Rest evne</t>
   </si>
   <si>
-    <t>FIRE sparing</t>
+    <t>Sparing</t>
   </si>
   <si>
-    <t>FIRE cashflow</t>
-  </si>
-  <si>
-    <t>FIRE sparerate</t>
+    <t>Sparerate</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Cash</t>
+    <t>KPI</t>
   </si>
   <si>
     <t>kpi</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 0, decimal: 1Using previous amount: 0 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 1Kontanter p.t. Asset rule 0original er satt til en variabel: changerates.kpi = 5% = 1.05Using current amount: 100000 * 1 no transferResource &amp;&amp; transferRule
-</t>
+    <t>Kontanter p.t. Asset rule: Using current amount: 100000 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 105000 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 100000 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 110250 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 105000 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 115763 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 110250 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 121551 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 115763 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 127629 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 121551 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 134010 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 127629 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 140711 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 134010 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 147747 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 140711 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 155134 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 147747 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 162891 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 155134 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 171036 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 162891 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 179588 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 171036 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 188567 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 179588 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 197995 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 188567 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 207895 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 197995 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 218290 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 207895 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 229205 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 218290 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 240665 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 229205 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 252698 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 240665 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 265333 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 252698 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 278600 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 265333 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 292530 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 278600 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 307157 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 292530 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 322515 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 307157 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 338641 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 322515 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 355573 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 338641 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 373352 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 355573 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 392020 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 373352 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 411621 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 392020 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 432202 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 411621 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 453812 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 432202 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 476503 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 453812 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 500328 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 476503 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 5, decimal: 1.05Using previous amount: 525344 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 500328 * 1</t>
   </si>
 </sst>
 </file>
@@ -693,7 +651,7 @@
   <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A72" sqref="A72:AD72"/>
+      <selection activeCell="A72" sqref="A72:AF72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -714,16 +672,20 @@
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -778,7 +740,7 @@
       <c r="Z4" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -832,22 +794,22 @@
         <v>28</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>19</v>
@@ -859,28 +821,28 @@
         <v>7</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" t="s">
         <v>40</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -891,16 +853,20 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1">
         <v>0</v>
@@ -911,15 +877,23 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" s="2"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="R6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
       <c r="U6" s="6">
         <v>0</v>
       </c>
@@ -941,7 +915,7 @@
       <c r="AC6" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6"/>
@@ -955,16 +929,20 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="1">
         <v>0</v>
@@ -975,15 +953,23 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="R7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
       <c r="U7" s="6">
         <v>0</v>
       </c>
@@ -1005,7 +991,7 @@
       <c r="AC7" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7"/>
@@ -1019,16 +1005,20 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="1">
         <v>0</v>
@@ -1039,15 +1029,23 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="2"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="R8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
       <c r="U8" s="6">
         <v>0</v>
       </c>
@@ -1069,7 +1067,7 @@
       <c r="AC8" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8"/>
@@ -1083,16 +1081,20 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="1">
         <v>0</v>
@@ -1103,15 +1105,23 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" s="2"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="R9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
       <c r="U9" s="6">
         <v>0</v>
       </c>
@@ -1133,7 +1143,7 @@
       <c r="AC9" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9"/>
@@ -1147,16 +1157,20 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="1">
         <v>0</v>
@@ -1167,15 +1181,23 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" s="2"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="R10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
       <c r="U10" s="6">
         <v>0</v>
       </c>
@@ -1197,7 +1219,7 @@
       <c r="AC10" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10"/>
@@ -1211,16 +1233,20 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="1">
         <v>0</v>
@@ -1231,15 +1257,23 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="R11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
       <c r="U11" s="6">
         <v>0</v>
       </c>
@@ -1261,7 +1295,7 @@
       <c r="AC11" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11"/>
@@ -1275,16 +1309,20 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="1">
         <v>0</v>
@@ -1295,15 +1333,23 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="R12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
       <c r="U12" s="6">
         <v>0</v>
       </c>
@@ -1325,7 +1371,7 @@
       <c r="AC12" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12"/>
@@ -1339,16 +1385,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="1">
         <v>0</v>
@@ -1359,15 +1409,23 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" s="2"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="R13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
       <c r="U13" s="6">
         <v>0</v>
       </c>
@@ -1389,7 +1447,7 @@
       <c r="AC13" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13"/>
@@ -1403,16 +1461,20 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="1">
         <v>0</v>
@@ -1423,15 +1485,23 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" s="2"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="R14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
       <c r="U14" s="6">
         <v>0</v>
       </c>
@@ -1453,7 +1523,7 @@
       <c r="AC14" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14"/>
@@ -1467,16 +1537,20 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="1">
         <v>0</v>
@@ -1487,15 +1561,23 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" s="2"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="R15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
       <c r="U15" s="6">
         <v>0</v>
       </c>
@@ -1517,7 +1599,7 @@
       <c r="AC15" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15"/>
@@ -1531,16 +1613,20 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="1">
         <v>0</v>
@@ -1551,15 +1637,23 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="2"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="R16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
       <c r="U16" s="6">
         <v>0</v>
       </c>
@@ -1581,7 +1675,7 @@
       <c r="AC16" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16"/>
@@ -1595,16 +1689,20 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="1">
         <v>0</v>
@@ -1615,15 +1713,23 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+      <c r="R17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
       <c r="U17" s="6">
         <v>0</v>
       </c>
@@ -1645,7 +1751,7 @@
       <c r="AC17" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17"/>
@@ -1659,16 +1765,20 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="1">
         <v>0</v>
@@ -1679,15 +1789,23 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q18" s="2"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="R18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
       <c r="U18" s="6">
         <v>0</v>
       </c>
@@ -1709,7 +1827,7 @@
       <c r="AC18" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18"/>
@@ -1723,16 +1841,20 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="1">
         <v>0</v>
@@ -1743,15 +1865,23 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" s="2"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="R19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
       <c r="U19" s="6">
         <v>0</v>
       </c>
@@ -1773,7 +1903,7 @@
       <c r="AC19" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19"/>
@@ -1787,16 +1917,20 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="1">
         <v>0</v>
@@ -1807,15 +1941,23 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" s="2"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="R20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
       <c r="U20" s="6">
         <v>0</v>
       </c>
@@ -1837,7 +1979,7 @@
       <c r="AC20" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20"/>
@@ -1851,16 +1993,20 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="1">
         <v>0</v>
@@ -1871,15 +2017,23 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q21" s="2"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="R21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
       <c r="U21" s="6">
         <v>0</v>
       </c>
@@ -1901,7 +2055,7 @@
       <c r="AC21" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21"/>
@@ -1915,16 +2069,20 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="1">
         <v>0</v>
@@ -1935,15 +2093,23 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" s="2"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="R22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
       <c r="U22" s="6">
         <v>0</v>
       </c>
@@ -1965,7 +2131,7 @@
       <c r="AC22" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22"/>
@@ -1979,16 +2145,20 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="1">
         <v>0</v>
@@ -1999,15 +2169,23 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" s="2"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="R23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
       <c r="U23" s="6">
         <v>0</v>
       </c>
@@ -2029,7 +2207,7 @@
       <c r="AC23" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23"/>
@@ -2043,16 +2221,20 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="1">
         <v>0</v>
@@ -2063,15 +2245,23 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="2"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="R24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
       <c r="U24" s="6">
         <v>0</v>
       </c>
@@ -2093,7 +2283,7 @@
       <c r="AC24" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24"/>
@@ -2107,16 +2297,20 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="1">
         <v>0</v>
@@ -2127,15 +2321,23 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="2"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+      <c r="R25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
       <c r="U25" s="6">
         <v>0</v>
       </c>
@@ -2157,7 +2359,7 @@
       <c r="AC25" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25"/>
@@ -2171,16 +2373,20 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="1">
         <v>0</v>
@@ -2191,15 +2397,23 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" s="2"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+      <c r="R26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
       <c r="U26" s="6">
         <v>0</v>
       </c>
@@ -2221,7 +2435,7 @@
       <c r="AC26" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26"/>
@@ -2235,16 +2449,20 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="1">
         <v>0</v>
@@ -2255,15 +2473,23 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" s="2"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="R27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
       <c r="U27" s="6">
         <v>0</v>
       </c>
@@ -2285,7 +2511,7 @@
       <c r="AC27" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27"/>
@@ -2299,16 +2525,20 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="1">
         <v>0</v>
@@ -2319,15 +2549,23 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" s="2"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="R28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
       <c r="U28" s="6">
         <v>0</v>
       </c>
@@ -2349,7 +2587,7 @@
       <c r="AC28" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28"/>
@@ -2363,16 +2601,20 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="1">
         <v>0</v>
@@ -2383,15 +2625,23 @@
       <c r="M29" s="1">
         <v>0</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q29" s="2"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
+      <c r="R29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
       <c r="U29" s="6">
         <v>0</v>
       </c>
@@ -2413,7 +2663,7 @@
       <c r="AC29" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29"/>
@@ -2427,16 +2677,20 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="1">
         <v>0</v>
@@ -2447,15 +2701,23 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" s="2"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
+      <c r="R30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
       <c r="U30" s="6">
         <v>0</v>
       </c>
@@ -2477,7 +2739,7 @@
       <c r="AC30" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30"/>
@@ -2491,16 +2753,20 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="1">
         <v>0</v>
@@ -2511,15 +2777,23 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" s="2"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="R31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
       <c r="U31" s="6">
         <v>0</v>
       </c>
@@ -2541,7 +2815,7 @@
       <c r="AC31" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31"/>
@@ -2555,16 +2829,20 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="1">
         <v>0</v>
@@ -2575,15 +2853,23 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" s="2"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
+      <c r="R32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
       <c r="U32" s="6">
         <v>0</v>
       </c>
@@ -2605,7 +2891,7 @@
       <c r="AC32" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AD32">
         <v>0</v>
       </c>
       <c r="AE32"/>
@@ -2619,16 +2905,20 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="1">
         <v>0</v>
@@ -2639,15 +2929,23 @@
       <c r="M33" s="1">
         <v>0</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" s="2"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
+      <c r="R33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
       <c r="U33" s="6">
         <v>0</v>
       </c>
@@ -2669,7 +2967,7 @@
       <c r="AC33" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33"/>
@@ -2683,16 +2981,20 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="1">
         <v>0</v>
@@ -2703,15 +3005,23 @@
       <c r="M34" s="1">
         <v>0</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" s="2"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
+      <c r="R34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
       <c r="U34" s="6">
         <v>0</v>
       </c>
@@ -2733,7 +3043,7 @@
       <c r="AC34" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34">
         <v>0</v>
       </c>
       <c r="AE34"/>
@@ -2747,16 +3057,20 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="1">
         <v>0</v>
@@ -2767,15 +3081,23 @@
       <c r="M35" s="1">
         <v>0</v>
       </c>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q35" s="2"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="R35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
       <c r="U35" s="6">
         <v>0</v>
       </c>
@@ -2797,7 +3119,7 @@
       <c r="AC35" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AD35">
         <v>0</v>
       </c>
       <c r="AE35"/>
@@ -2811,16 +3133,20 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="1">
         <v>0</v>
@@ -2831,15 +3157,23 @@
       <c r="M36" s="1">
         <v>0</v>
       </c>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" s="2"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="R36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
       <c r="U36" s="6">
         <v>0</v>
       </c>
@@ -2861,7 +3195,7 @@
       <c r="AC36" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD36">
         <v>0</v>
       </c>
       <c r="AE36"/>
@@ -2875,16 +3209,20 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H37" s="2"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="1">
         <v>0</v>
@@ -2895,15 +3233,23 @@
       <c r="M37" s="1">
         <v>0</v>
       </c>
-      <c r="N37" s="1"/>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q37" s="2"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
+      <c r="R37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
       <c r="U37" s="6">
         <v>0</v>
       </c>
@@ -2925,7 +3271,7 @@
       <c r="AC37" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37">
         <v>0</v>
       </c>
       <c r="AE37"/>
@@ -2939,16 +3285,20 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="1">
         <v>0</v>
@@ -2959,15 +3309,23 @@
       <c r="M38" s="1">
         <v>0</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="Q38" s="2"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
+      <c r="R38" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U38" s="6">
         <v>100000</v>
       </c>
@@ -2989,7 +3347,7 @@
       <c r="AC38" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38"/>
@@ -3003,16 +3361,20 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="8"/>
+      <c r="G39" s="8">
+        <v>0.0</v>
+      </c>
       <c r="H39" s="9"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
       <c r="J39" s="9"/>
       <c r="K39" s="8">
         <v>0</v>
@@ -3023,15 +3385,23 @@
       <c r="M39" s="8">
         <v>0</v>
       </c>
-      <c r="N39" s="8"/>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>105000</v>
+        <v>105000.0</v>
       </c>
       <c r="Q39" s="9"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
+      <c r="R39" s="8">
+        <v>105000.0</v>
+      </c>
+      <c r="S39" s="8">
+        <v>100000.0</v>
+      </c>
+      <c r="T39" s="8">
+        <v>100000.0</v>
+      </c>
       <c r="U39" s="8">
         <v>105000</v>
       </c>
@@ -3053,10 +3423,11 @@
       <c r="AC39" s="8">
         <v>0.0</v>
       </c>
-      <c r="AD39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE39"/>
+      <c r="AD39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
       <c r="AG39"/>
     </row>
     <row r="40" spans="1:33">
@@ -3067,16 +3438,20 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" s="12"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="11">
+        <v>0.0</v>
+      </c>
       <c r="H40" s="12"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
       <c r="J40" s="12"/>
       <c r="K40" s="11">
         <v>0</v>
@@ -3087,15 +3462,23 @@
       <c r="M40" s="11">
         <v>0</v>
       </c>
-      <c r="N40" s="11"/>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>110250</v>
+        <v>110250.0</v>
       </c>
       <c r="Q40" s="12"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
+      <c r="R40" s="11">
+        <v>110250.0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>100000.0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>100000.0</v>
+      </c>
       <c r="U40" s="11">
         <v>110250</v>
       </c>
@@ -3117,10 +3500,11 @@
       <c r="AC40" s="11">
         <v>0.0</v>
       </c>
-      <c r="AD40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE40"/>
+      <c r="AD40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
       <c r="AG40"/>
     </row>
     <row r="41" spans="1:33">
@@ -3131,16 +3515,20 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="1">
         <v>0</v>
@@ -3151,15 +3539,23 @@
       <c r="M41" s="1">
         <v>0</v>
       </c>
-      <c r="N41" s="1"/>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>115763</v>
+        <v>115763.0</v>
       </c>
       <c r="Q41" s="2"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
+      <c r="R41" s="1">
+        <v>115763.0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U41" s="6">
         <v>115763</v>
       </c>
@@ -3181,7 +3577,7 @@
       <c r="AC41" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41"/>
@@ -3195,16 +3591,20 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="1">
         <v>0</v>
@@ -3215,15 +3615,23 @@
       <c r="M42" s="1">
         <v>0</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>121551</v>
+        <v>121551.0</v>
       </c>
       <c r="Q42" s="2"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
+      <c r="R42" s="1">
+        <v>121551.0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U42" s="6">
         <v>121551</v>
       </c>
@@ -3245,7 +3653,7 @@
       <c r="AC42" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42"/>
@@ -3259,16 +3667,20 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="1">
         <v>0</v>
@@ -3279,15 +3691,23 @@
       <c r="M43" s="1">
         <v>0</v>
       </c>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>127629</v>
+        <v>127629.0</v>
       </c>
       <c r="Q43" s="2"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="R43" s="1">
+        <v>127629.0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U43" s="6">
         <v>127629</v>
       </c>
@@ -3309,7 +3729,7 @@
       <c r="AC43" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43"/>
@@ -3323,16 +3743,20 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="1">
         <v>0</v>
@@ -3343,15 +3767,23 @@
       <c r="M44" s="1">
         <v>0</v>
       </c>
-      <c r="N44" s="1"/>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>134010</v>
+        <v>134010.0</v>
       </c>
       <c r="Q44" s="2"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
+      <c r="R44" s="1">
+        <v>134010.0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U44" s="6">
         <v>134010</v>
       </c>
@@ -3373,7 +3805,7 @@
       <c r="AC44" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44"/>
@@ -3387,16 +3819,20 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="1">
         <v>0</v>
@@ -3407,15 +3843,23 @@
       <c r="M45" s="1">
         <v>0</v>
       </c>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>140711</v>
+        <v>140711.0</v>
       </c>
       <c r="Q45" s="2"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
+      <c r="R45" s="1">
+        <v>140711.0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U45" s="6">
         <v>140711</v>
       </c>
@@ -3437,7 +3881,7 @@
       <c r="AC45" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45"/>
@@ -3451,16 +3895,20 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="1">
         <v>0</v>
@@ -3471,15 +3919,23 @@
       <c r="M46" s="1">
         <v>0</v>
       </c>
-      <c r="N46" s="1"/>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>147747</v>
+        <v>147747.0</v>
       </c>
       <c r="Q46" s="2"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
+      <c r="R46" s="1">
+        <v>147747.0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U46" s="6">
         <v>147747</v>
       </c>
@@ -3501,7 +3957,7 @@
       <c r="AC46" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AD46">
         <v>0</v>
       </c>
       <c r="AE46"/>
@@ -3515,16 +3971,20 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="1">
         <v>0</v>
@@ -3535,15 +3995,23 @@
       <c r="M47" s="1">
         <v>0</v>
       </c>
-      <c r="N47" s="1"/>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>155134</v>
+        <v>155134.0</v>
       </c>
       <c r="Q47" s="2"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
+      <c r="R47" s="1">
+        <v>155134.0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U47" s="6">
         <v>155134</v>
       </c>
@@ -3565,7 +4033,7 @@
       <c r="AC47" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD47">
         <v>0</v>
       </c>
       <c r="AE47"/>
@@ -3579,16 +4047,20 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="1">
         <v>0</v>
@@ -3599,15 +4071,23 @@
       <c r="M48" s="1">
         <v>0</v>
       </c>
-      <c r="N48" s="1"/>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>162891</v>
+        <v>162891.0</v>
       </c>
       <c r="Q48" s="2"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
+      <c r="R48" s="1">
+        <v>162891.0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U48" s="6">
         <v>162891</v>
       </c>
@@ -3629,7 +4109,7 @@
       <c r="AC48" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AD48">
         <v>0</v>
       </c>
       <c r="AE48"/>
@@ -3643,16 +4123,20 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
       <c r="J49" s="2"/>
       <c r="K49" s="1">
         <v>0</v>
@@ -3663,15 +4147,23 @@
       <c r="M49" s="1">
         <v>0</v>
       </c>
-      <c r="N49" s="1"/>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>171036</v>
+        <v>171036.0</v>
       </c>
       <c r="Q49" s="2"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
+      <c r="R49" s="1">
+        <v>171036.0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U49" s="6">
         <v>171036</v>
       </c>
@@ -3693,7 +4185,7 @@
       <c r="AC49" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD49">
         <v>0</v>
       </c>
       <c r="AE49"/>
@@ -3707,16 +4199,20 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="1">
         <v>0</v>
@@ -3727,15 +4223,23 @@
       <c r="M50" s="1">
         <v>0</v>
       </c>
-      <c r="N50" s="1"/>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>179588</v>
+        <v>179588.0</v>
       </c>
       <c r="Q50" s="2"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
+      <c r="R50" s="1">
+        <v>179588.0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U50" s="6">
         <v>179588</v>
       </c>
@@ -3757,7 +4261,7 @@
       <c r="AC50" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD50">
         <v>0</v>
       </c>
       <c r="AE50"/>
@@ -3771,16 +4275,20 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="1">
         <v>0</v>
@@ -3791,15 +4299,23 @@
       <c r="M51" s="1">
         <v>0</v>
       </c>
-      <c r="N51" s="1"/>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>188567</v>
+        <v>188567.0</v>
       </c>
       <c r="Q51" s="2"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
+      <c r="R51" s="1">
+        <v>188567.0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U51" s="6">
         <v>188567</v>
       </c>
@@ -3821,7 +4337,7 @@
       <c r="AC51" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AD51">
         <v>0</v>
       </c>
       <c r="AE51"/>
@@ -3835,16 +4351,20 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F52" s="2"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
       <c r="J52" s="2"/>
       <c r="K52" s="1">
         <v>0</v>
@@ -3855,15 +4375,23 @@
       <c r="M52" s="1">
         <v>0</v>
       </c>
-      <c r="N52" s="1"/>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>197995</v>
+        <v>197995.0</v>
       </c>
       <c r="Q52" s="2"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
+      <c r="R52" s="1">
+        <v>197995.0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U52" s="6">
         <v>197995</v>
       </c>
@@ -3885,7 +4413,7 @@
       <c r="AC52" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52"/>
@@ -3899,16 +4427,20 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
+      <c r="G53" s="13">
+        <v>0.0</v>
+      </c>
       <c r="H53" s="14"/>
-      <c r="I53" s="13"/>
+      <c r="I53" s="13">
+        <v>0</v>
+      </c>
       <c r="J53" s="14"/>
       <c r="K53" s="13">
         <v>0</v>
@@ -3919,15 +4451,23 @@
       <c r="M53" s="13">
         <v>0</v>
       </c>
-      <c r="N53" s="13"/>
+      <c r="N53" s="13">
+        <v>0</v>
+      </c>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>207895</v>
+        <v>207895.0</v>
       </c>
       <c r="Q53" s="14"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
+      <c r="R53" s="13">
+        <v>207895.0</v>
+      </c>
+      <c r="S53" s="13">
+        <v>100000.0</v>
+      </c>
+      <c r="T53" s="13">
+        <v>100000.0</v>
+      </c>
       <c r="U53" s="13">
         <v>207895</v>
       </c>
@@ -3949,10 +4489,11 @@
       <c r="AC53" s="13">
         <v>0.0</v>
       </c>
-      <c r="AD53" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE53"/>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
       <c r="AG53"/>
     </row>
     <row r="54" spans="1:33">
@@ -3963,16 +4504,20 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
       <c r="J54" s="2"/>
       <c r="K54" s="1">
         <v>0</v>
@@ -3983,15 +4528,23 @@
       <c r="M54" s="1">
         <v>0</v>
       </c>
-      <c r="N54" s="1"/>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>218290</v>
+        <v>218290.0</v>
       </c>
       <c r="Q54" s="2"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
+      <c r="R54" s="1">
+        <v>218290.0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U54" s="6">
         <v>218290</v>
       </c>
@@ -4013,7 +4566,7 @@
       <c r="AC54" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AD54">
         <v>0</v>
       </c>
       <c r="AE54"/>
@@ -4027,16 +4580,20 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
       <c r="J55" s="2"/>
       <c r="K55" s="1">
         <v>0</v>
@@ -4047,15 +4604,23 @@
       <c r="M55" s="1">
         <v>0</v>
       </c>
-      <c r="N55" s="1"/>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>229205</v>
+        <v>229205.0</v>
       </c>
       <c r="Q55" s="2"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
+      <c r="R55" s="1">
+        <v>229205.0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U55" s="6">
         <v>229205</v>
       </c>
@@ -4077,7 +4642,7 @@
       <c r="AC55" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55"/>
@@ -4091,16 +4656,20 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
       <c r="J56" s="2"/>
       <c r="K56" s="1">
         <v>0</v>
@@ -4111,15 +4680,23 @@
       <c r="M56" s="1">
         <v>0</v>
       </c>
-      <c r="N56" s="1"/>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>240665</v>
+        <v>240665.0</v>
       </c>
       <c r="Q56" s="2"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
+      <c r="R56" s="1">
+        <v>240665.0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U56" s="6">
         <v>240665</v>
       </c>
@@ -4141,7 +4718,7 @@
       <c r="AC56" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56"/>
@@ -4155,16 +4732,20 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" s="14"/>
-      <c r="G57" s="13"/>
+      <c r="G57" s="13">
+        <v>0.0</v>
+      </c>
       <c r="H57" s="14"/>
-      <c r="I57" s="13"/>
+      <c r="I57" s="13">
+        <v>0</v>
+      </c>
       <c r="J57" s="14"/>
       <c r="K57" s="13">
         <v>0</v>
@@ -4175,15 +4756,23 @@
       <c r="M57" s="13">
         <v>0</v>
       </c>
-      <c r="N57" s="13"/>
+      <c r="N57" s="13">
+        <v>0</v>
+      </c>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>252698</v>
+        <v>252698.0</v>
       </c>
       <c r="Q57" s="14"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
+      <c r="R57" s="13">
+        <v>252698.0</v>
+      </c>
+      <c r="S57" s="13">
+        <v>100000.0</v>
+      </c>
+      <c r="T57" s="13">
+        <v>100000.0</v>
+      </c>
       <c r="U57" s="13">
         <v>252698</v>
       </c>
@@ -4205,10 +4794,11 @@
       <c r="AC57" s="13">
         <v>0.0</v>
       </c>
-      <c r="AD57" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE57"/>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
       <c r="AG57"/>
     </row>
     <row r="58" spans="1:33">
@@ -4219,16 +4809,20 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F58" s="2"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H58" s="2"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
       <c r="J58" s="2"/>
       <c r="K58" s="1">
         <v>0</v>
@@ -4239,15 +4833,23 @@
       <c r="M58" s="1">
         <v>0</v>
       </c>
-      <c r="N58" s="1"/>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>265333</v>
+        <v>265333.0</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
+      <c r="R58" s="1">
+        <v>265333.0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U58" s="6">
         <v>265333</v>
       </c>
@@ -4269,7 +4871,7 @@
       <c r="AC58" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AD58">
         <v>0</v>
       </c>
       <c r="AE58"/>
@@ -4283,16 +4885,20 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H59" s="2"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
       <c r="J59" s="2"/>
       <c r="K59" s="1">
         <v>0</v>
@@ -4303,15 +4909,23 @@
       <c r="M59" s="1">
         <v>0</v>
       </c>
-      <c r="N59" s="1"/>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>278600</v>
+        <v>278600.0</v>
       </c>
       <c r="Q59" s="2"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
+      <c r="R59" s="1">
+        <v>278600.0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U59" s="6">
         <v>278600</v>
       </c>
@@ -4333,7 +4947,7 @@
       <c r="AC59" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59"/>
@@ -4347,16 +4961,20 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H60" s="2"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
       <c r="J60" s="2"/>
       <c r="K60" s="1">
         <v>0</v>
@@ -4367,15 +4985,23 @@
       <c r="M60" s="1">
         <v>0</v>
       </c>
-      <c r="N60" s="1"/>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>292530</v>
+        <v>292530.0</v>
       </c>
       <c r="Q60" s="2"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
+      <c r="R60" s="1">
+        <v>292530.0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U60" s="6">
         <v>292530</v>
       </c>
@@ -4397,7 +5023,7 @@
       <c r="AC60" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD60" s="2">
+      <c r="AD60">
         <v>0</v>
       </c>
       <c r="AE60"/>
@@ -4411,16 +5037,20 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H61" s="2"/>
-      <c r="I61" s="1"/>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
       <c r="J61" s="2"/>
       <c r="K61" s="1">
         <v>0</v>
@@ -4431,15 +5061,23 @@
       <c r="M61" s="1">
         <v>0</v>
       </c>
-      <c r="N61" s="1"/>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>307157</v>
+        <v>307157.0</v>
       </c>
       <c r="Q61" s="2"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
+      <c r="R61" s="1">
+        <v>307157.0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U61" s="6">
         <v>307157</v>
       </c>
@@ -4461,7 +5099,7 @@
       <c r="AC61" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD61" s="2">
+      <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61"/>
@@ -4475,16 +5113,20 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H62" s="2"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
       <c r="J62" s="2"/>
       <c r="K62" s="1">
         <v>0</v>
@@ -4495,15 +5137,23 @@
       <c r="M62" s="1">
         <v>0</v>
       </c>
-      <c r="N62" s="1"/>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>322515</v>
+        <v>322515.0</v>
       </c>
       <c r="Q62" s="2"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
+      <c r="R62" s="1">
+        <v>322515.0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U62" s="6">
         <v>322515</v>
       </c>
@@ -4525,7 +5175,7 @@
       <c r="AC62" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD62" s="2">
+      <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62"/>
@@ -4539,16 +5189,20 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H63" s="2"/>
-      <c r="I63" s="1"/>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
       <c r="J63" s="2"/>
       <c r="K63" s="1">
         <v>0</v>
@@ -4559,15 +5213,23 @@
       <c r="M63" s="1">
         <v>0</v>
       </c>
-      <c r="N63" s="1"/>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>338641</v>
+        <v>338641.0</v>
       </c>
       <c r="Q63" s="2"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
+      <c r="R63" s="1">
+        <v>338641.0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U63" s="6">
         <v>338641</v>
       </c>
@@ -4589,7 +5251,7 @@
       <c r="AC63" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AD63">
         <v>0</v>
       </c>
       <c r="AE63"/>
@@ -4603,16 +5265,20 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H64" s="2"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="1">
         <v>0</v>
@@ -4623,15 +5289,23 @@
       <c r="M64" s="1">
         <v>0</v>
       </c>
-      <c r="N64" s="1"/>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>355573</v>
+        <v>355573.0</v>
       </c>
       <c r="Q64" s="2"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
+      <c r="R64" s="1">
+        <v>355573.0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U64" s="6">
         <v>355573</v>
       </c>
@@ -4653,7 +5327,7 @@
       <c r="AC64" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD64" s="2">
+      <c r="AD64">
         <v>0</v>
       </c>
       <c r="AE64"/>
@@ -4667,16 +5341,20 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H65" s="2"/>
-      <c r="I65" s="1"/>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
       <c r="J65" s="2"/>
       <c r="K65" s="1">
         <v>0</v>
@@ -4687,15 +5365,23 @@
       <c r="M65" s="1">
         <v>0</v>
       </c>
-      <c r="N65" s="1"/>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>373352</v>
+        <v>373352.0</v>
       </c>
       <c r="Q65" s="2"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
+      <c r="R65" s="1">
+        <v>373352.0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U65" s="6">
         <v>373352</v>
       </c>
@@ -4717,7 +5403,7 @@
       <c r="AC65" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD65" s="2">
+      <c r="AD65">
         <v>0</v>
       </c>
       <c r="AE65"/>
@@ -4731,16 +5417,20 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
       <c r="J66" s="2"/>
       <c r="K66" s="1">
         <v>0</v>
@@ -4751,15 +5441,23 @@
       <c r="M66" s="1">
         <v>0</v>
       </c>
-      <c r="N66" s="1"/>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>392020</v>
+        <v>392020.0</v>
       </c>
       <c r="Q66" s="2"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
+      <c r="R66" s="1">
+        <v>392020.0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U66" s="6">
         <v>392020</v>
       </c>
@@ -4781,7 +5479,7 @@
       <c r="AC66" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66"/>
@@ -4795,16 +5493,20 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H67" s="2"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
       <c r="J67" s="2"/>
       <c r="K67" s="1">
         <v>0</v>
@@ -4815,15 +5517,23 @@
       <c r="M67" s="1">
         <v>0</v>
       </c>
-      <c r="N67" s="1"/>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>411621</v>
+        <v>411621.0</v>
       </c>
       <c r="Q67" s="2"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
+      <c r="R67" s="1">
+        <v>411621.0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U67" s="6">
         <v>411621</v>
       </c>
@@ -4845,7 +5555,7 @@
       <c r="AC67" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67"/>
@@ -4859,16 +5569,20 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H68" s="2"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="1">
         <v>0</v>
@@ -4879,15 +5593,23 @@
       <c r="M68" s="1">
         <v>0</v>
       </c>
-      <c r="N68" s="1"/>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>432202</v>
+        <v>432202.0</v>
       </c>
       <c r="Q68" s="2"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
+      <c r="R68" s="1">
+        <v>432202.0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U68" s="6">
         <v>432202</v>
       </c>
@@ -4909,7 +5631,7 @@
       <c r="AC68" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD68" s="2">
+      <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68"/>
@@ -4923,16 +5645,20 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F69" s="2"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H69" s="2"/>
-      <c r="I69" s="1"/>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
       <c r="J69" s="2"/>
       <c r="K69" s="1">
         <v>0</v>
@@ -4943,15 +5669,23 @@
       <c r="M69" s="1">
         <v>0</v>
       </c>
-      <c r="N69" s="1"/>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>453812</v>
+        <v>453812.0</v>
       </c>
       <c r="Q69" s="2"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
+      <c r="R69" s="1">
+        <v>453812.0</v>
+      </c>
+      <c r="S69" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U69" s="6">
         <v>453812</v>
       </c>
@@ -4973,7 +5707,7 @@
       <c r="AC69" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD69" s="2">
+      <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69"/>
@@ -4987,16 +5721,20 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F70" s="2"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H70" s="2"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
       <c r="J70" s="2"/>
       <c r="K70" s="1">
         <v>0</v>
@@ -5007,15 +5745,23 @@
       <c r="M70" s="1">
         <v>0</v>
       </c>
-      <c r="N70" s="1"/>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>476503</v>
+        <v>476503.0</v>
       </c>
       <c r="Q70" s="2"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
+      <c r="R70" s="1">
+        <v>476503.0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T70" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U70" s="6">
         <v>476503</v>
       </c>
@@ -5037,7 +5783,7 @@
       <c r="AC70" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD70" s="2">
+      <c r="AD70">
         <v>0</v>
       </c>
       <c r="AE70"/>
@@ -5051,16 +5797,20 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F71" s="2"/>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H71" s="2"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
       <c r="J71" s="2"/>
       <c r="K71" s="1">
         <v>0</v>
@@ -5071,15 +5821,23 @@
       <c r="M71" s="1">
         <v>0</v>
       </c>
-      <c r="N71" s="1"/>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>500328</v>
+        <v>500328.0</v>
       </c>
       <c r="Q71" s="2"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
+      <c r="R71" s="1">
+        <v>500328.0</v>
+      </c>
+      <c r="S71" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>100000.0</v>
+      </c>
       <c r="U71" s="6">
         <v>500328</v>
       </c>
@@ -5101,7 +5859,7 @@
       <c r="AC71" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD71" s="2">
+      <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71"/>
@@ -5115,16 +5873,20 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F72" s="16"/>
-      <c r="G72" s="5"/>
+      <c r="G72" s="5">
+        <v>0.0</v>
+      </c>
       <c r="H72" s="16"/>
-      <c r="I72" s="5"/>
+      <c r="I72" s="5">
+        <v>0</v>
+      </c>
       <c r="J72" s="16"/>
       <c r="K72" s="5">
         <v>0</v>
@@ -5135,15 +5897,23 @@
       <c r="M72" s="5">
         <v>0</v>
       </c>
-      <c r="N72" s="5"/>
+      <c r="N72" s="5">
+        <v>0</v>
+      </c>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>525344</v>
+        <v>525344.0</v>
       </c>
       <c r="Q72" s="16"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
+      <c r="R72" s="5">
+        <v>525344.0</v>
+      </c>
+      <c r="S72" s="5">
+        <v>100000.0</v>
+      </c>
+      <c r="T72" s="5">
+        <v>100000.0</v>
+      </c>
       <c r="U72" s="5">
         <v>525344</v>
       </c>
@@ -5165,10 +5935,11 @@
       <c r="AC72" s="5">
         <v>0.0</v>
       </c>
-      <c r="AD72" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE72"/>
+      <c r="AD72" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
       <c r="AG72"/>
     </row>
     <row r="73" spans="1:33">
@@ -5200,7 +5971,6 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="2"/>
     </row>
     <row r="74" spans="1:33">
       <c r="B74" s="1"/>
@@ -5231,7 +6001,6 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="2"/>
     </row>
     <row r="75" spans="1:33">
       <c r="B75" s="1"/>
@@ -5262,7 +6031,6 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75" s="2"/>
     </row>
     <row r="76" spans="1:33">
       <c r="B76" s="1"/>
@@ -5293,7 +6061,6 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="2"/>
     </row>
     <row r="77" spans="1:33">
       <c r="B77" s="1"/>
@@ -5324,7 +6091,6 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77" s="2"/>
     </row>
     <row r="78" spans="1:33">
       <c r="B78" s="1"/>
@@ -5355,7 +6121,6 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="2"/>
     </row>
     <row r="79" spans="1:33">
       <c r="B79" s="1"/>
@@ -5386,7 +6151,6 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79" s="2"/>
     </row>
     <row r="80" spans="1:33">
       <c r="B80" s="1"/>
@@ -5417,7 +6181,6 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -5443,7 +6206,7 @@
   <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A72" sqref="A72:AD72"/>
+      <selection activeCell="A72" sqref="A72:AF72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5464,21 +6227,25 @@
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -5486,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -5498,7 +6265,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -5530,7 +6297,7 @@
       <c r="Z4" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5584,22 +6351,22 @@
         <v>28</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>19</v>
@@ -5611,28 +6378,28 @@
         <v>7</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" t="s">
         <v>40</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -5643,11 +6410,11 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1">
@@ -5664,11 +6431,11 @@
       <c r="N6" s="1"/>
       <c r="O6" s="2"/>
       <c r="P6" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -5681,7 +6448,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -5697,12 +6464,12 @@
       <c r="AC6" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6"/>
       <c r="AG6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -5713,11 +6480,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
@@ -5734,11 +6501,11 @@
       <c r="N7" s="1"/>
       <c r="O7" s="2"/>
       <c r="P7" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -5751,7 +6518,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -5767,12 +6534,12 @@
       <c r="AC7" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7"/>
       <c r="AG7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -5783,11 +6550,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
@@ -5804,11 +6571,11 @@
       <c r="N8" s="1"/>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -5821,7 +6588,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -5837,12 +6604,12 @@
       <c r="AC8" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8"/>
       <c r="AG8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5853,11 +6620,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -5874,11 +6641,11 @@
       <c r="N9" s="1"/>
       <c r="O9" s="2"/>
       <c r="P9" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -5891,7 +6658,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -5907,12 +6674,12 @@
       <c r="AC9" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9"/>
       <c r="AG9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5923,11 +6690,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -5944,11 +6711,11 @@
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -5961,7 +6728,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -5977,12 +6744,12 @@
       <c r="AC10" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10"/>
       <c r="AG10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5993,11 +6760,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
@@ -6014,11 +6781,11 @@
       <c r="N11" s="1"/>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -6031,7 +6798,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -6047,12 +6814,12 @@
       <c r="AC11" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11"/>
       <c r="AG11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -6063,11 +6830,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
@@ -6084,11 +6851,11 @@
       <c r="N12" s="1"/>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
@@ -6101,7 +6868,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -6117,12 +6884,12 @@
       <c r="AC12" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12"/>
       <c r="AG12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -6133,11 +6900,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
@@ -6154,11 +6921,11 @@
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -6171,7 +6938,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -6187,12 +6954,12 @@
       <c r="AC13" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13"/>
       <c r="AG13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -6203,11 +6970,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
@@ -6224,11 +6991,11 @@
       <c r="N14" s="1"/>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
@@ -6241,7 +7008,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -6257,12 +7024,12 @@
       <c r="AC14" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14"/>
       <c r="AG14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -6273,11 +7040,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
@@ -6294,11 +7061,11 @@
       <c r="N15" s="1"/>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -6311,7 +7078,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -6327,12 +7094,12 @@
       <c r="AC15" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15"/>
       <c r="AG15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -6343,11 +7110,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
@@ -6364,11 +7131,11 @@
       <c r="N16" s="1"/>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
@@ -6381,7 +7148,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -6397,12 +7164,12 @@
       <c r="AC16" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16"/>
       <c r="AG16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -6413,11 +7180,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -6434,11 +7201,11 @@
       <c r="N17" s="1"/>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
@@ -6451,7 +7218,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -6467,12 +7234,12 @@
       <c r="AC17" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17"/>
       <c r="AG17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -6483,11 +7250,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -6504,11 +7271,11 @@
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
@@ -6521,7 +7288,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -6537,12 +7304,12 @@
       <c r="AC18" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18"/>
       <c r="AG18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -6553,11 +7320,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
@@ -6574,11 +7341,11 @@
       <c r="N19" s="1"/>
       <c r="O19" s="2"/>
       <c r="P19" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
@@ -6591,7 +7358,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -6607,12 +7374,12 @@
       <c r="AC19" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19"/>
       <c r="AG19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -6623,11 +7390,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -6644,11 +7411,11 @@
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S20" s="1">
         <v>0</v>
@@ -6661,7 +7428,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -6677,12 +7444,12 @@
       <c r="AC20" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20"/>
       <c r="AG20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -6693,11 +7460,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -6714,11 +7481,11 @@
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
@@ -6731,7 +7498,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -6747,12 +7514,12 @@
       <c r="AC21" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21"/>
       <c r="AG21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -6763,11 +7530,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -6784,11 +7551,11 @@
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -6801,7 +7568,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -6817,12 +7584,12 @@
       <c r="AC22" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22"/>
       <c r="AG22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -6833,11 +7600,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -6854,11 +7621,11 @@
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -6871,7 +7638,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -6887,12 +7654,12 @@
       <c r="AC23" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23"/>
       <c r="AG23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -6903,11 +7670,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -6924,11 +7691,11 @@
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
@@ -6941,7 +7708,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -6957,12 +7724,12 @@
       <c r="AC24" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24"/>
       <c r="AG24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -6973,11 +7740,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -6994,11 +7761,11 @@
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S25" s="1">
         <v>0</v>
@@ -7011,7 +7778,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -7027,12 +7794,12 @@
       <c r="AC25" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25"/>
       <c r="AG25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -7043,11 +7810,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
@@ -7064,11 +7831,11 @@
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -7081,7 +7848,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -7097,12 +7864,12 @@
       <c r="AC26" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26"/>
       <c r="AG26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -7113,11 +7880,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
@@ -7134,11 +7901,11 @@
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S27" s="1">
         <v>0</v>
@@ -7151,7 +7918,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -7167,12 +7934,12 @@
       <c r="AC27" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27"/>
       <c r="AG27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -7183,11 +7950,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
@@ -7204,11 +7971,11 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
@@ -7221,7 +7988,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -7237,12 +8004,12 @@
       <c r="AC28" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28"/>
       <c r="AG28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -7253,11 +8020,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
@@ -7274,11 +8041,11 @@
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S29" s="1">
         <v>0</v>
@@ -7291,7 +8058,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -7307,12 +8074,12 @@
       <c r="AC29" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29"/>
       <c r="AG29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -7323,11 +8090,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
@@ -7344,11 +8111,11 @@
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -7361,7 +8128,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -7377,12 +8144,12 @@
       <c r="AC30" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30"/>
       <c r="AG30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -7393,11 +8160,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
@@ -7414,11 +8181,11 @@
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S31" s="1">
         <v>0</v>
@@ -7431,7 +8198,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -7447,12 +8214,12 @@
       <c r="AC31" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31"/>
       <c r="AG31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -7463,11 +8230,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
@@ -7484,11 +8251,11 @@
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -7501,7 +8268,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -7517,12 +8284,12 @@
       <c r="AC32" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AD32">
         <v>0</v>
       </c>
       <c r="AE32"/>
       <c r="AG32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -7533,11 +8300,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
@@ -7554,11 +8321,11 @@
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
@@ -7571,7 +8338,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -7587,12 +8354,12 @@
       <c r="AC33" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33"/>
       <c r="AG33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -7603,11 +8370,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
@@ -7624,11 +8391,11 @@
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S34" s="1">
         <v>0</v>
@@ -7641,7 +8408,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -7657,12 +8424,12 @@
       <c r="AC34" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34">
         <v>0</v>
       </c>
       <c r="AE34"/>
       <c r="AG34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -7673,11 +8440,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -7694,11 +8461,11 @@
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S35" s="1">
         <v>0</v>
@@ -7711,7 +8478,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -7727,12 +8494,12 @@
       <c r="AC35" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AD35">
         <v>0</v>
       </c>
       <c r="AE35"/>
       <c r="AG35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -7743,11 +8510,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -7764,11 +8531,11 @@
       <c r="N36" s="1"/>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S36" s="1">
         <v>0</v>
@@ -7781,7 +8548,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -7797,12 +8564,12 @@
       <c r="AC36" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD36">
         <v>0</v>
       </c>
       <c r="AE36"/>
       <c r="AG36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -7813,11 +8580,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -7834,11 +8601,11 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S37" s="1">
         <v>0</v>
@@ -7851,7 +8618,7 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
@@ -7867,12 +8634,12 @@
       <c r="AC37" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37">
         <v>0</v>
       </c>
       <c r="AE37"/>
       <c r="AG37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -7883,11 +8650,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
@@ -7904,19 +8671,19 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="Q38" s="2">
         <v>0.05</v>
       </c>
       <c r="R38" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U38" s="6">
         <v>100000</v>
@@ -7925,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="W38" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
@@ -7943,12 +8710,12 @@
       <c r="AC38" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38"/>
       <c r="AG38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -7959,11 +8726,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
@@ -7980,19 +8747,19 @@
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>105000</v>
+        <v>105000.0</v>
       </c>
       <c r="Q39" s="9">
         <v>0.05</v>
       </c>
       <c r="R39" s="8">
-        <v>105000</v>
+        <v>105000.0</v>
       </c>
       <c r="S39" s="8">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U39" s="8">
         <v>105000</v>
@@ -8001,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="W39" s="8">
-        <v>1050.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9">
         <v>0.01</v>
@@ -8019,12 +8786,13 @@
       <c r="AC39" s="8">
         <v>0.0</v>
       </c>
-      <c r="AD39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE39"/>
+      <c r="AD39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
       <c r="AG39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -8035,11 +8803,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -8056,19 +8824,19 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>110250</v>
+        <v>110250.0</v>
       </c>
       <c r="Q40" s="12">
         <v>0.05</v>
       </c>
       <c r="R40" s="11">
-        <v>110250</v>
+        <v>110250.0</v>
       </c>
       <c r="S40" s="11">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U40" s="11">
         <v>110250</v>
@@ -8077,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="W40" s="11">
-        <v>1102.5</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
@@ -8095,12 +8863,13 @@
       <c r="AC40" s="11">
         <v>0.0</v>
       </c>
-      <c r="AD40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE40"/>
+      <c r="AD40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
       <c r="AG40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -8111,11 +8880,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -8132,19 +8901,19 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>115763</v>
+        <v>115763.0</v>
       </c>
       <c r="Q41" s="2">
         <v>0.05</v>
       </c>
       <c r="R41" s="1">
-        <v>115763</v>
+        <v>115763.0</v>
       </c>
       <c r="S41" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U41" s="6">
         <v>115763</v>
@@ -8153,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="W41" s="1">
-        <v>1157.63</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
@@ -8171,12 +8940,12 @@
       <c r="AC41" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41"/>
       <c r="AG41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -8187,11 +8956,11 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -8208,19 +8977,19 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>121551</v>
+        <v>121551.0</v>
       </c>
       <c r="Q42" s="2">
         <v>0.05</v>
       </c>
       <c r="R42" s="1">
-        <v>121551</v>
+        <v>121551.0</v>
       </c>
       <c r="S42" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U42" s="6">
         <v>121551</v>
@@ -8229,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="W42" s="1">
-        <v>1215.51</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
@@ -8247,12 +9016,12 @@
       <c r="AC42" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42"/>
       <c r="AG42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -8263,11 +9032,11 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -8284,19 +9053,19 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>127629</v>
+        <v>127629.0</v>
       </c>
       <c r="Q43" s="2">
         <v>0.05</v>
       </c>
       <c r="R43" s="1">
-        <v>127629</v>
+        <v>127629.0</v>
       </c>
       <c r="S43" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U43" s="6">
         <v>127629</v>
@@ -8305,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="W43" s="1">
-        <v>1276.29</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
@@ -8323,12 +9092,12 @@
       <c r="AC43" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43"/>
       <c r="AG43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -8339,11 +9108,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -8360,19 +9129,19 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>134010</v>
+        <v>134010.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.05</v>
       </c>
       <c r="R44" s="1">
-        <v>134010</v>
+        <v>134010.0</v>
       </c>
       <c r="S44" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U44" s="6">
         <v>134010</v>
@@ -8381,7 +9150,7 @@
         <v>1</v>
       </c>
       <c r="W44" s="1">
-        <v>1340.1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
@@ -8399,12 +9168,12 @@
       <c r="AC44" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44"/>
       <c r="AG44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -8415,11 +9184,11 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -8436,19 +9205,19 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>140711</v>
+        <v>140711.0</v>
       </c>
       <c r="Q45" s="2">
         <v>0.05</v>
       </c>
       <c r="R45" s="1">
-        <v>140711</v>
+        <v>140711.0</v>
       </c>
       <c r="S45" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U45" s="6">
         <v>140711</v>
@@ -8457,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="W45" s="1">
-        <v>1407.11</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
@@ -8475,12 +9244,12 @@
       <c r="AC45" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45"/>
       <c r="AG45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -8491,11 +9260,11 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -8512,19 +9281,19 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>147747</v>
+        <v>147747.0</v>
       </c>
       <c r="Q46" s="2">
         <v>0.05</v>
       </c>
       <c r="R46" s="1">
-        <v>147747</v>
+        <v>147747.0</v>
       </c>
       <c r="S46" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U46" s="6">
         <v>147747</v>
@@ -8533,7 +9302,7 @@
         <v>1</v>
       </c>
       <c r="W46" s="1">
-        <v>1477.47</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
@@ -8551,12 +9320,12 @@
       <c r="AC46" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AD46">
         <v>0</v>
       </c>
       <c r="AE46"/>
       <c r="AG46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -8567,11 +9336,11 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -8588,19 +9357,19 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>155134</v>
+        <v>155134.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.05</v>
       </c>
       <c r="R47" s="1">
-        <v>155134</v>
+        <v>155134.0</v>
       </c>
       <c r="S47" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U47" s="6">
         <v>155134</v>
@@ -8609,7 +9378,7 @@
         <v>1</v>
       </c>
       <c r="W47" s="1">
-        <v>1551.34</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
@@ -8627,12 +9396,12 @@
       <c r="AC47" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD47">
         <v>0</v>
       </c>
       <c r="AE47"/>
       <c r="AG47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -8643,11 +9412,11 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -8664,19 +9433,19 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>162891</v>
+        <v>162891.0</v>
       </c>
       <c r="Q48" s="2">
         <v>0.05</v>
       </c>
       <c r="R48" s="1">
-        <v>162891</v>
+        <v>162891.0</v>
       </c>
       <c r="S48" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U48" s="6">
         <v>162891</v>
@@ -8685,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="W48" s="1">
-        <v>1628.91</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
@@ -8703,12 +9472,12 @@
       <c r="AC48" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AD48">
         <v>0</v>
       </c>
       <c r="AE48"/>
       <c r="AG48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -8719,11 +9488,11 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -8740,19 +9509,19 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>171036</v>
+        <v>171036.0</v>
       </c>
       <c r="Q49" s="2">
         <v>0.05</v>
       </c>
       <c r="R49" s="1">
-        <v>171036</v>
+        <v>171036.0</v>
       </c>
       <c r="S49" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U49" s="6">
         <v>171036</v>
@@ -8761,7 +9530,7 @@
         <v>1</v>
       </c>
       <c r="W49" s="1">
-        <v>1710.36</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
@@ -8779,12 +9548,12 @@
       <c r="AC49" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD49">
         <v>0</v>
       </c>
       <c r="AE49"/>
       <c r="AG49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -8795,11 +9564,11 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -8816,19 +9585,19 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>179588</v>
+        <v>179588.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.05</v>
       </c>
       <c r="R50" s="1">
-        <v>179588</v>
+        <v>179588.0</v>
       </c>
       <c r="S50" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U50" s="6">
         <v>179588</v>
@@ -8837,7 +9606,7 @@
         <v>1</v>
       </c>
       <c r="W50" s="1">
-        <v>1795.88</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
@@ -8855,12 +9624,12 @@
       <c r="AC50" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD50">
         <v>0</v>
       </c>
       <c r="AE50"/>
       <c r="AG50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -8871,11 +9640,11 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -8892,19 +9661,19 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>188567</v>
+        <v>188567.0</v>
       </c>
       <c r="Q51" s="2">
         <v>0.05</v>
       </c>
       <c r="R51" s="1">
-        <v>188567</v>
+        <v>188567.0</v>
       </c>
       <c r="S51" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U51" s="6">
         <v>188567</v>
@@ -8913,7 +9682,7 @@
         <v>1</v>
       </c>
       <c r="W51" s="1">
-        <v>1885.67</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
@@ -8931,12 +9700,12 @@
       <c r="AC51" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AD51">
         <v>0</v>
       </c>
       <c r="AE51"/>
       <c r="AG51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -8947,11 +9716,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -8968,19 +9737,19 @@
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>197995</v>
+        <v>197995.0</v>
       </c>
       <c r="Q52" s="2">
         <v>0.05</v>
       </c>
       <c r="R52" s="1">
-        <v>197995</v>
+        <v>197995.0</v>
       </c>
       <c r="S52" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U52" s="6">
         <v>197995</v>
@@ -8989,7 +9758,7 @@
         <v>1</v>
       </c>
       <c r="W52" s="1">
-        <v>1979.95</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
@@ -9007,12 +9776,12 @@
       <c r="AC52" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52"/>
       <c r="AG52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -9023,11 +9792,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -9044,19 +9813,19 @@
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>207895</v>
+        <v>207895.0</v>
       </c>
       <c r="Q53" s="14">
         <v>0.05</v>
       </c>
       <c r="R53" s="13">
-        <v>207895</v>
+        <v>207895.0</v>
       </c>
       <c r="S53" s="13">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U53" s="13">
         <v>207895</v>
@@ -9065,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="W53" s="13">
-        <v>2078.95</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
@@ -9083,12 +9852,13 @@
       <c r="AC53" s="13">
         <v>0.0</v>
       </c>
-      <c r="AD53" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE53"/>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
       <c r="AG53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -9099,11 +9869,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -9120,19 +9890,19 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>218290</v>
+        <v>218290.0</v>
       </c>
       <c r="Q54" s="2">
         <v>0.05</v>
       </c>
       <c r="R54" s="1">
-        <v>218290</v>
+        <v>218290.0</v>
       </c>
       <c r="S54" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U54" s="6">
         <v>218290</v>
@@ -9141,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="W54" s="1">
-        <v>2182.9</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
@@ -9159,12 +9929,12 @@
       <c r="AC54" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AD54">
         <v>0</v>
       </c>
       <c r="AE54"/>
       <c r="AG54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -9175,11 +9945,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -9196,19 +9966,19 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>229205</v>
+        <v>229205.0</v>
       </c>
       <c r="Q55" s="2">
         <v>0.05</v>
       </c>
       <c r="R55" s="1">
-        <v>229205</v>
+        <v>229205.0</v>
       </c>
       <c r="S55" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U55" s="6">
         <v>229205</v>
@@ -9217,7 +9987,7 @@
         <v>1</v>
       </c>
       <c r="W55" s="1">
-        <v>2292.05</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
@@ -9235,12 +10005,12 @@
       <c r="AC55" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55"/>
       <c r="AG55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -9251,11 +10021,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -9272,19 +10042,19 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>240665</v>
+        <v>240665.0</v>
       </c>
       <c r="Q56" s="2">
         <v>0.05</v>
       </c>
       <c r="R56" s="1">
-        <v>240665</v>
+        <v>240665.0</v>
       </c>
       <c r="S56" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U56" s="6">
         <v>240665</v>
@@ -9293,7 +10063,7 @@
         <v>1</v>
       </c>
       <c r="W56" s="1">
-        <v>2406.65</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
@@ -9311,12 +10081,12 @@
       <c r="AC56" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56"/>
       <c r="AG56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -9327,11 +10097,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -9348,19 +10118,19 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>252698</v>
+        <v>252698.0</v>
       </c>
       <c r="Q57" s="14">
         <v>0.05</v>
       </c>
       <c r="R57" s="13">
-        <v>252698</v>
+        <v>252698.0</v>
       </c>
       <c r="S57" s="13">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U57" s="13">
         <v>252698</v>
@@ -9369,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="W57" s="13">
-        <v>2526.98</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
@@ -9387,12 +10157,13 @@
       <c r="AC57" s="13">
         <v>0.0</v>
       </c>
-      <c r="AD57" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE57"/>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
       <c r="AG57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -9403,11 +10174,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -9424,19 +10195,19 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>265333</v>
+        <v>265333.0</v>
       </c>
       <c r="Q58" s="2">
         <v>0.05</v>
       </c>
       <c r="R58" s="1">
-        <v>265333</v>
+        <v>265333.0</v>
       </c>
       <c r="S58" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U58" s="6">
         <v>265333</v>
@@ -9445,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="W58" s="1">
-        <v>2653.33</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
@@ -9463,12 +10234,12 @@
       <c r="AC58" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AD58">
         <v>0</v>
       </c>
       <c r="AE58"/>
       <c r="AG58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -9479,11 +10250,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -9500,19 +10271,19 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>278600</v>
+        <v>278600.0</v>
       </c>
       <c r="Q59" s="2">
         <v>0.05</v>
       </c>
       <c r="R59" s="1">
-        <v>278600</v>
+        <v>278600.0</v>
       </c>
       <c r="S59" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U59" s="6">
         <v>278600</v>
@@ -9521,7 +10292,7 @@
         <v>1</v>
       </c>
       <c r="W59" s="1">
-        <v>2786.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
@@ -9539,12 +10310,12 @@
       <c r="AC59" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59"/>
       <c r="AG59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -9555,11 +10326,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -9576,19 +10347,19 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>292530</v>
+        <v>292530.0</v>
       </c>
       <c r="Q60" s="2">
         <v>0.05</v>
       </c>
       <c r="R60" s="1">
-        <v>292530</v>
+        <v>292530.0</v>
       </c>
       <c r="S60" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U60" s="6">
         <v>292530</v>
@@ -9597,7 +10368,7 @@
         <v>1</v>
       </c>
       <c r="W60" s="1">
-        <v>2925.3</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
@@ -9615,12 +10386,12 @@
       <c r="AC60" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD60" s="2">
+      <c r="AD60">
         <v>0</v>
       </c>
       <c r="AE60"/>
       <c r="AG60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -9631,11 +10402,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -9652,19 +10423,19 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>307157</v>
+        <v>307157.0</v>
       </c>
       <c r="Q61" s="2">
         <v>0.05</v>
       </c>
       <c r="R61" s="1">
-        <v>307157</v>
+        <v>307157.0</v>
       </c>
       <c r="S61" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U61" s="6">
         <v>307157</v>
@@ -9673,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="W61" s="1">
-        <v>3071.57</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
@@ -9691,12 +10462,12 @@
       <c r="AC61" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD61" s="2">
+      <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61"/>
       <c r="AG61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -9707,11 +10478,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -9728,19 +10499,19 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>322515</v>
+        <v>322515.0</v>
       </c>
       <c r="Q62" s="2">
         <v>0.05</v>
       </c>
       <c r="R62" s="1">
-        <v>322515</v>
+        <v>322515.0</v>
       </c>
       <c r="S62" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U62" s="6">
         <v>322515</v>
@@ -9749,7 +10520,7 @@
         <v>1</v>
       </c>
       <c r="W62" s="1">
-        <v>3225.15</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
@@ -9767,12 +10538,12 @@
       <c r="AC62" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD62" s="2">
+      <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62"/>
       <c r="AG62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -9783,11 +10554,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -9804,19 +10575,19 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>338641</v>
+        <v>338641.0</v>
       </c>
       <c r="Q63" s="2">
         <v>0.05</v>
       </c>
       <c r="R63" s="1">
-        <v>338641</v>
+        <v>338641.0</v>
       </c>
       <c r="S63" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U63" s="6">
         <v>338641</v>
@@ -9825,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="W63" s="1">
-        <v>3386.41</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
@@ -9843,12 +10614,12 @@
       <c r="AC63" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AD63">
         <v>0</v>
       </c>
       <c r="AE63"/>
       <c r="AG63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -9859,11 +10630,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -9880,19 +10651,19 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>355573</v>
+        <v>355573.0</v>
       </c>
       <c r="Q64" s="2">
         <v>0.05</v>
       </c>
       <c r="R64" s="1">
-        <v>355573</v>
+        <v>355573.0</v>
       </c>
       <c r="S64" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U64" s="6">
         <v>355573</v>
@@ -9901,7 +10672,7 @@
         <v>1</v>
       </c>
       <c r="W64" s="1">
-        <v>3555.73</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
@@ -9919,12 +10690,12 @@
       <c r="AC64" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD64" s="2">
+      <c r="AD64">
         <v>0</v>
       </c>
       <c r="AE64"/>
       <c r="AG64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -9935,11 +10706,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -9956,19 +10727,19 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>373352</v>
+        <v>373352.0</v>
       </c>
       <c r="Q65" s="2">
         <v>0.05</v>
       </c>
       <c r="R65" s="1">
-        <v>373352</v>
+        <v>373352.0</v>
       </c>
       <c r="S65" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U65" s="6">
         <v>373352</v>
@@ -9977,7 +10748,7 @@
         <v>1</v>
       </c>
       <c r="W65" s="1">
-        <v>3733.52</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
@@ -9995,12 +10766,12 @@
       <c r="AC65" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD65" s="2">
+      <c r="AD65">
         <v>0</v>
       </c>
       <c r="AE65"/>
       <c r="AG65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -10011,11 +10782,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -10032,19 +10803,19 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>392020</v>
+        <v>392020.0</v>
       </c>
       <c r="Q66" s="2">
         <v>0.05</v>
       </c>
       <c r="R66" s="1">
-        <v>392020</v>
+        <v>392020.0</v>
       </c>
       <c r="S66" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U66" s="6">
         <v>392020</v>
@@ -10053,7 +10824,7 @@
         <v>1</v>
       </c>
       <c r="W66" s="1">
-        <v>3920.2</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
@@ -10071,12 +10842,12 @@
       <c r="AC66" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66"/>
       <c r="AG66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -10087,11 +10858,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -10108,19 +10879,19 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>411621</v>
+        <v>411621.0</v>
       </c>
       <c r="Q67" s="2">
         <v>0.05</v>
       </c>
       <c r="R67" s="1">
-        <v>411621</v>
+        <v>411621.0</v>
       </c>
       <c r="S67" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U67" s="6">
         <v>411621</v>
@@ -10129,7 +10900,7 @@
         <v>1</v>
       </c>
       <c r="W67" s="1">
-        <v>4116.21</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
@@ -10147,12 +10918,12 @@
       <c r="AC67" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67"/>
       <c r="AG67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -10163,11 +10934,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -10184,19 +10955,19 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>432202</v>
+        <v>432202.0</v>
       </c>
       <c r="Q68" s="2">
         <v>0.05</v>
       </c>
       <c r="R68" s="1">
-        <v>432202</v>
+        <v>432202.0</v>
       </c>
       <c r="S68" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U68" s="6">
         <v>432202</v>
@@ -10205,7 +10976,7 @@
         <v>1</v>
       </c>
       <c r="W68" s="1">
-        <v>4322.02</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
@@ -10223,12 +10994,12 @@
       <c r="AC68" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD68" s="2">
+      <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68"/>
       <c r="AG68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -10239,11 +11010,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -10260,19 +11031,19 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>453812</v>
+        <v>453812.0</v>
       </c>
       <c r="Q69" s="2">
         <v>0.05</v>
       </c>
       <c r="R69" s="1">
-        <v>453812</v>
+        <v>453812.0</v>
       </c>
       <c r="S69" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U69" s="6">
         <v>453812</v>
@@ -10281,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="W69" s="1">
-        <v>4538.12</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
@@ -10299,12 +11070,12 @@
       <c r="AC69" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD69" s="2">
+      <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69"/>
       <c r="AG69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:33">
@@ -10315,11 +11086,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -10336,19 +11107,19 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>476503</v>
+        <v>476503.0</v>
       </c>
       <c r="Q70" s="2">
         <v>0.05</v>
       </c>
       <c r="R70" s="1">
-        <v>476503</v>
+        <v>476503.0</v>
       </c>
       <c r="S70" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U70" s="6">
         <v>476503</v>
@@ -10357,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="W70" s="1">
-        <v>4765.03</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
@@ -10375,12 +11146,12 @@
       <c r="AC70" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD70" s="2">
+      <c r="AD70">
         <v>0</v>
       </c>
       <c r="AE70"/>
       <c r="AG70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -10391,11 +11162,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -10412,19 +11183,19 @@
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>500328</v>
+        <v>500328.0</v>
       </c>
       <c r="Q71" s="2">
         <v>0.05</v>
       </c>
       <c r="R71" s="1">
-        <v>500328</v>
+        <v>500328.0</v>
       </c>
       <c r="S71" s="1">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U71" s="6">
         <v>500328</v>
@@ -10433,7 +11204,7 @@
         <v>1</v>
       </c>
       <c r="W71" s="1">
-        <v>5003.28</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
@@ -10451,12 +11222,12 @@
       <c r="AC71" s="1">
         <v>0.0</v>
       </c>
-      <c r="AD71" s="2">
+      <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71"/>
       <c r="AG71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -10467,11 +11238,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -10488,19 +11259,19 @@
       <c r="N72" s="5"/>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>525344</v>
+        <v>525344.0</v>
       </c>
       <c r="Q72" s="16">
         <v>0.05</v>
       </c>
       <c r="R72" s="5">
-        <v>525344</v>
+        <v>525344.0</v>
       </c>
       <c r="S72" s="5">
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>200000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="U72" s="5">
         <v>525344</v>
@@ -10509,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="W72" s="5">
-        <v>5253.44</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16">
         <v>0.01</v>
@@ -10527,12 +11298,13 @@
       <c r="AC72" s="5">
         <v>0.0</v>
       </c>
-      <c r="AD72" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE72"/>
+      <c r="AD72" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
       <c r="AG72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -10564,7 +11336,6 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="2"/>
     </row>
     <row r="74" spans="1:33">
       <c r="B74" s="1"/>
@@ -10595,7 +11366,6 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="2"/>
     </row>
     <row r="75" spans="1:33">
       <c r="B75" s="1"/>
@@ -10626,7 +11396,6 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75" s="2"/>
     </row>
     <row r="76" spans="1:33">
       <c r="B76" s="1"/>
@@ -10657,7 +11426,6 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="2"/>
     </row>
     <row r="77" spans="1:33">
       <c r="B77" s="1"/>
@@ -10688,7 +11456,6 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77" s="2"/>
     </row>
     <row r="78" spans="1:33">
       <c r="B78" s="1"/>
@@ -10719,7 +11486,6 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="2"/>
     </row>
     <row r="79" spans="1:33">
       <c r="B79" s="1"/>
@@ -10750,7 +11516,6 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79" s="2"/>
     </row>
     <row r="80" spans="1:33">
       <c r="B80" s="1"/>
@@ -10781,7 +11546,6 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
